--- a/examples/tscodes_xlsx_fred/rek_bal_code.xlsx
+++ b/examples/tscodes_xlsx_fred/rek_bal_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Topic" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,18 +23,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t xml:space="preserve">sa4</t>
+    <t xml:space="preserve">Code</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal_1</t>
   </si>
   <si>
+    <t xml:space="preserve">t1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Totaal_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t2</t>
   </si>
   <si>
     <t xml:space="preserve">MonetairGoud_3</t>
@@ -467,14 +473,14 @@
   </sheetPr>
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,375 +495,381 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -879,19 +891,19 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.71938775510204"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -901,26 +913,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -928,10 +940,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -939,43 +951,43 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -996,13 +1008,13 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,50 +1027,50 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1080,15 +1092,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1110,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
